--- a/saomiao-manager/src/main/resources/static/upload/template/3D扫描批量导入模板.xlsx
+++ b/saomiao-manager/src/main/resources/static/upload/template/3D扫描批量导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="20205" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="20760" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,39 +27,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>年级或职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>性别(0男 1女)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年级或职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高(cm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重(kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
+    <t>出生日期(格式:xxxx/xx/xx)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,12 +106,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,58 +423,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="1"/>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/saomiao-manager/src/main/resources/static/upload/template/3D扫描批量导入模板.xlsx
+++ b/saomiao-manager/src/main/resources/static/upload/template/3D扫描批量导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="20760" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="20040" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>体重(kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -425,9 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -449,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -458,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -472,9 +466,7 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15"/>
